--- a/data/trans_dic/P23_DUKE_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P23_DUKE_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que recibe apoyo social global bajo</t>
+          <t>Población que recibe apoyo social global bajo (tasa de respuesta: 93,87%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>16,77%</t>
+          <t>85,67%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>13,31%</t>
+          <t>83,57%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>15,73%</t>
+          <t>82,31%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>85,62%</t>
+          <t>88,8%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>16,66%</t>
+          <t>89,44%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>14,87%</t>
+          <t>87,78%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>21,48%</t>
+          <t>82,26%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>82,32%</t>
+          <t>85,1%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>16,71%</t>
+          <t>86,25%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>14,14%</t>
+          <t>86,61%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>18,81%</t>
+          <t>88,19%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>83,92%</t>
+          <t>84,78%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>83,88%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>84,39%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>84,42%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>87,66%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>88,8%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>86,25%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>13,11; 22,95</t>
+          <t>81,58; 88,83</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,46; 17,07</t>
+          <t>79,67; 86,62</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>12,71; 21,09</t>
+          <t>77,92; 85,91</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>82,32; 88,27</t>
+          <t>85,24; 91,62</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>13,83; 19,68</t>
+          <t>86,47; 91,6</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>12,37; 17,6</t>
+          <t>84,5; 90,42</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>18,13; 28,32</t>
+          <t>78,89; 85,41</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>78,97; 85,06</t>
+          <t>82,2; 87,55</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>14,43; 19,86</t>
+          <t>83,58; 88,59</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>12,25; 16,51</t>
+          <t>82,83; 89,6</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>16,39; 23,11</t>
+          <t>85,33; 90,52</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>81,64; 85,86</t>
+          <t>81,8; 87,11</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>81,54; 86,16</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>81,93; 86,29</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>82,3; 86,45</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>85,18; 89,51</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>86,95; 90,48</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>83,93; 88,02</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>15,4%</t>
+          <t>78,61%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>17,7%</t>
+          <t>86,58%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>17,77%</t>
+          <t>84,75%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>83,33%</t>
+          <t>84,53%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>19,65%</t>
+          <t>86,47%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>15,69%</t>
+          <t>90,13%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>17,28%</t>
+          <t>86,41%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>84,54%</t>
+          <t>87,05%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>17,62%</t>
+          <t>83,27%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>16,66%</t>
+          <t>86,04%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>17,52%</t>
+          <t>90,84%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>83,91%</t>
+          <t>85,47%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>82,68%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>86,82%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>84,0%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>85,28%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>88,55%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>87,89%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>11,66; 22,44</t>
+          <t>74,1; 83,61</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>14,02; 22,3</t>
+          <t>82,92; 89,74</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>13,77; 23,49</t>
+          <t>80,77; 88,02</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>71,88; 88,09</t>
+          <t>78,72; 88,51</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>16,4; 23,94</t>
+          <t>76,1; 91,46</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>12,88; 19,02</t>
+          <t>84,98; 93,67</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>14,18; 20,63</t>
+          <t>82,96; 89,37</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>78,76; 89,39</t>
+          <t>83,44; 89,8</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>14,72; 21,21</t>
+          <t>79,5; 86,58</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>14,47; 19,34</t>
+          <t>82,35; 89,43</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>14,93; 20,68</t>
+          <t>85,62; 94,32</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>78,07; 87,52</t>
+          <t>79,83; 90,0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>79,44; 85,56</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>84,33; 88,92</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>81,29; 86,37</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>82,01; 88,03</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>82,69; 91,66</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>84,06; 90,71</t>
         </is>
       </c>
     </row>
@@ -936,60 +1105,90 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>14,31%</t>
+          <t>77,89%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>19,48%</t>
+          <t>84,47%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>19,59%</t>
+          <t>85,32%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>89,94%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>17,64%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>13,73%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>18,4%</t>
+          <t>79,34%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>87,36%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>84,89%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>91,32%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>15,95%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>16,6%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>19,0%</t>
-        </is>
-      </c>
       <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>78,59%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>85,91%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>85,11%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>90,65%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1004,60 +1203,90 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,56; 23,27</t>
+          <t>59,72; 86,54</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>12,52; 31,59</t>
+          <t>76,06; 90,48</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>11,98; 32,63</t>
+          <t>77,79; 91,56</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>81,3; 95,04</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>11,59; 25,55</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,6; 20,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>12,86; 25,26</t>
+          <t>71,34; 86,34</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
+          <t>80,6; 92,47</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>77,96; 90,14</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>83,05; 95,81</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>11,34; 21,6</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>12,37; 23,44</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>13,8; 25,77</t>
-        </is>
-      </c>
       <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>68,5; 84,05</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>80,74; 90,26</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>79,97; 89,12</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>85,13; 94,59</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>15,93%</t>
+          <t>81,92%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>15,83%</t>
+          <t>84,89%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>17,01%</t>
+          <t>83,65%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>85,06%</t>
+          <t>87,21%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>17,94%</t>
+          <t>88,72%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>15,06%</t>
+          <t>88,36%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>19,56%</t>
+          <t>83,59%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>82,8%</t>
+          <t>86,11%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>16,98%</t>
+          <t>84,98%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>15,43%</t>
+          <t>86,94%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>18,34%</t>
+          <t>88,76%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>83,92%</t>
+          <t>84,93%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>82,79%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>85,53%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>84,34%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>87,08%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>88,74%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>86,63%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1403,1519 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,96; 19,79</t>
+          <t>78,26; 84,54</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>13,41; 18,55</t>
+          <t>82,21; 86,97</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>14,43; 20,61</t>
+          <t>80,93; 85,96</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>81,65; 87,69</t>
+          <t>84,45; 89,54</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>15,52; 19,99</t>
+          <t>85,66; 91,1</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>13,25; 16,88</t>
+          <t>85,52; 90,41</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>17,55; 23,7</t>
+          <t>81,05; 85,47</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>79,84; 85,09</t>
+          <t>84,23; 87,9</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>15,14; 18,73</t>
+          <t>82,98; 86,98</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>13,97; 17,06</t>
+          <t>84,78; 88,98</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>16,53; 20,57</t>
+          <t>86,17; 91,0</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>81,88; 85,73</t>
+          <t>82,44; 87,35</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>80,72; 84,52</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>83,97; 86,92</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>82,67; 85,91</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>85,19; 88,61</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>86,87; 90,37</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>84,97; 88,35</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que recibe apoyo social global bajo (tasa de respuesta: 93,87%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>424.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>461.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>500.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>406.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>525.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>531.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>508.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>609.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>683.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>502.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>688.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>700.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>932.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>1070.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>1183.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>908.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>1213.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>1231.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>1222332</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>1122001</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>1180636</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>1294388</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>175040</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>179529</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>1304290</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>1315534</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>1420780</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>1368994</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>182628</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>180939</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>2526622</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>2437536</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>2601415</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>2663381</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>357668</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>360469</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>1164049; 1267405</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1069655; 1162873</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>1117681; 1232280</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>1242549; 1335430</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>169226; 179265</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>172824; 184924</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>1250904; 1354137</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>1270731; 1353373</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>1376653; 1459270</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>1309251; 1416188</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>176711; 187459</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>174579; 185916</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>2456425; 2595452</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>2366472; 2492324</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>2536212; 2663875</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>2587999; 2719557</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>350214; 364431</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>350781; 367860</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>311.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>369.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>381.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>326.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>178.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>206.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>411.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>493.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>476.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>406.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>191.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>183.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>722.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>862.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>857.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>732.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>369.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>389.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>914362</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>980005</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1005579</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>1031774</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>54844</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>60007</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>1100499</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>1044192</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1001646</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>1051141</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>52158</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>52814</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>2014861</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>2024197</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>2007225</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>2082914</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>107001</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>112821</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>861943; 972574</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>938560; 1015748</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>958424; 1044399</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>960916; 1080381</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>48264; 58007</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>56578; 62363</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>1056584; 1138246</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>1000908; 1077175</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>956287; 1041474</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>1006127; 1092514</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>49162; 54155</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>49329; 55613</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>1935848; 2084954</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>1965980; 2073048</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>1942421; 2063827</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>2002988; 2150091</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>99924; 110761</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>107907; 116449</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>105.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>97.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>129.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>133.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>181.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>231.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>238.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>177.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>290501</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>293797</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>313777</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>318566</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>276390</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>303697</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>309326</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>339676</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>566891</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>597496</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>623103</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>658242</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>222717; 322756</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>264534; 314715</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>286074; 336705</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>287943; 336604</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>248522; 300792</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>280226; 321472</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>284081; 328458</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>308944; 356408</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>494135; 606292</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>561515; 627751</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>585471; 652484</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>618153; 686885</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>819.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>932.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>986.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>807.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>703.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>737.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>1016.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1231.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1292.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>1010.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>879.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>883.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>1835.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>2163.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>2278.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>1817.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>1582.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>1620.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>2427195</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>2395803</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>2499991</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>2644726</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>229884</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>239537</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>2681179</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>2663424</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>2731752</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>2759810</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>234785</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>233753</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>5108374</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>5059228</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>5231743</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>5404536</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>464669</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>473290</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>2318985; 2505063</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>2320171; 2454525</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>2418792; 2569193</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>2561068; 2715318</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>221956; 236067</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>231841; 245096</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>2599618; 2741459</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>2605179; 2718646</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>2667335; 2795820</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>2691237; 2824289</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>227926; 240706</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>226898; 240400</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>4980836; 5215209</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>4967291; 5141487</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>5127934; 5329127</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>5287437; 5499884</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>454858; 473200</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>464185; 482674</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
